--- a/data/Assets Catalog filtered.xlsx
+++ b/data/Assets Catalog filtered.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10499872_polimi_it/Documents/Python/Cursor/Budget_allocation_optimization/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="403" documentId="8_{A201B856-5134-4BEB-B38A-07CD78C15265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A26B62E-D593-2148-AA2E-77E8FB2DE3EC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{070D8703-8215-49D3-B279-69865E8AA7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17320" activeTab="1" xr2:uid="{76868B64-D7DA-4BDE-9DFD-E26DA47C7791}"/>
+    <workbookView xWindow="45960" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{76868B64-D7DA-4BDE-9DFD-E26DA47C7791}"/>
   </bookViews>
   <sheets>
     <sheet name="Electric Network" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
   <si>
     <t>Asset type</t>
   </si>
@@ -175,6 +175,36 @@
   </si>
   <si>
     <t>Coal Power Station</t>
+  </si>
+  <si>
+    <t>Liberty 1</t>
+  </si>
+  <si>
+    <t>29.9589, -94.8505</t>
+  </si>
+  <si>
+    <t>Trinity river solar</t>
+  </si>
+  <si>
+    <t>30.0103, -94.4863 </t>
+  </si>
+  <si>
+    <t>Myrtle solar</t>
+  </si>
+  <si>
+    <t>29.2285, -95.4274</t>
+  </si>
+  <si>
+    <t>Red Bluff Road Solar</t>
+  </si>
+  <si>
+    <t>29.6150, -95.0702</t>
+  </si>
+  <si>
+    <t>Brazoria West</t>
+  </si>
+  <si>
+    <t>29.1910, -95.6630</t>
   </si>
 </sst>
 </file>
@@ -238,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,6 +287,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,22 +622,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13C4469-A94B-4180-9AB2-255BB82391F3}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="4" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125"/>
+    <col min="7" max="8" width="10.796875"/>
     <col min="9" max="9" width="19.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -635,7 +666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -661,7 +692,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -687,7 +718,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
@@ -713,7 +744,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
@@ -739,7 +770,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
@@ -765,14 +796,134 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>23</v>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="6">
+        <v>259</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="8">
+        <v>321434.38299999997</v>
+      </c>
+      <c r="H7" s="8">
+        <v>3315671.4759999998</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6">
+        <v>409</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="8">
+        <v>356656.51699999999</v>
+      </c>
+      <c r="H8" s="8">
+        <v>3320856.71</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6">
+        <v>538</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="8">
+        <v>264056.06400000001</v>
+      </c>
+      <c r="H9" s="8">
+        <v>3235743.32</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="6">
+        <v>360</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="8">
+        <v>299545.32500000001</v>
+      </c>
+      <c r="H10" s="8">
+        <v>3277915.5559999999</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="6">
+        <v>540</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="8">
+        <v>241053.016</v>
+      </c>
+      <c r="H11" s="8">
+        <v>3232083.39</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
@@ -785,24 +936,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1D46A6-010E-4C97-A0C3-C400E324B149}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C9" sqref="A9:XFD9"/>
+    <sheetView topLeftCell="C1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1328125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125"/>
+    <col min="7" max="8" width="10.796875"/>
     <col min="9" max="9" width="23.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="11.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -831,7 +982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -858,7 +1009,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -884,7 +1035,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
@@ -910,7 +1061,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -936,7 +1087,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
@@ -962,7 +1113,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -988,7 +1139,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -1014,7 +1165,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -1040,7 +1191,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -1066,7 +1217,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1092,12 +1243,12 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>23</v>
       </c>

--- a/data/Assets Catalog filtered.xlsx
+++ b/data/Assets Catalog filtered.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10499872_polimi_it/Documents/Python/Cursor/Budget_allocation_optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="403" documentId="8_{A201B856-5134-4BEB-B38A-07CD78C15265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A26B62E-D593-2148-AA2E-77E8FB2DE3EC}"/>
+  <xr:revisionPtr revIDLastSave="415" documentId="8_{A201B856-5134-4BEB-B38A-07CD78C15265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78DB9203-374B-6C42-A18F-A4BD20B21DAB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17320" activeTab="1" xr2:uid="{76868B64-D7DA-4BDE-9DFD-E26DA47C7791}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{76868B64-D7DA-4BDE-9DFD-E26DA47C7791}"/>
   </bookViews>
   <sheets>
     <sheet name="Electric Network" sheetId="1" r:id="rId1"/>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13C4469-A94B-4180-9AB2-255BB82391F3}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1D46A6-010E-4C97-A0C3-C400E324B149}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C9" sqref="A9:XFD9"/>
+    <sheetView topLeftCell="C1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
